--- a/summary.xlsx
+++ b/summary.xlsx
@@ -704,10 +704,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,21 +760,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -782,62 +767,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,14 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -873,25 +797,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,8 +819,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +913,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,103 +979,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,25 +1015,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1051,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,13 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,6 +1104,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1129,17 +1152,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,15 +1196,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1178,184 +1204,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,16 +1425,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>560070</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327328</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104666</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>363523</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107206</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1450,7 +1443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12904470" y="5100320"/>
+          <a:off x="13626465" y="8874760"/>
           <a:ext cx="1138555" cy="490220"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1534,16 +1527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>583565</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>67945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>564102</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180562</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1552,7 +1545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14299565" y="5039995"/>
+          <a:off x="14601825" y="8035290"/>
           <a:ext cx="1351915" cy="497840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1878,16 +1871,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>643255</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>611783</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87079</xdr:rowOff>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228878</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16594</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1896,7 +1889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14359255" y="4462780"/>
+          <a:off x="15347950" y="8678545"/>
           <a:ext cx="1339850" cy="424815"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -1949,15 +1942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
+      <xdr:colOff>410210</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>88762</xdr:colOff>
+      <xdr:colOff>102097</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1966,7 +1959,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6569075" y="10016490"/>
+          <a:off x="6582410" y="10069195"/>
           <a:ext cx="1062990" cy="554355"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2034,16 +2027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>500380</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>392705</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>142515</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500655</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24405</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2052,7 +2045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14216380" y="8684260"/>
+          <a:off x="16381730" y="9251950"/>
           <a:ext cx="1263650" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2120,16 +2113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>83970</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>122428</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97305</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>149733</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2138,7 +2131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12733020" y="10025380"/>
+          <a:off x="13432155" y="10224135"/>
           <a:ext cx="1066800" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2206,16 +2199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>227965</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>194834</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>98933</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>280670</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>247539</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>8128</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2224,7 +2217,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25602565" y="14973935"/>
+          <a:off x="22912070" y="14197330"/>
           <a:ext cx="1337945" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2292,16 +2285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>263387</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114808</xdr:rowOff>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608827</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144653</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2310,7 +2303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12992100" y="6760210"/>
+          <a:off x="14023340" y="5761355"/>
           <a:ext cx="986790" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2534,16 +2527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>347980</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>367857</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>23505</xdr:rowOff>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>269432</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55890</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2552,7 +2545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20236180" y="7708900"/>
+          <a:off x="21509355" y="8769985"/>
           <a:ext cx="1391285" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2636,16 +2629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>290195</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>132826</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>83693</xdr:rowOff>
+      <xdr:colOff>315595</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>158226</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>96393</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2654,7 +2647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16749395" y="8272145"/>
+          <a:off x="18146395" y="8970645"/>
           <a:ext cx="1214120" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2739,15 +2732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>156845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>646871</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>7493</xdr:rowOff>
+      <xdr:colOff>465455</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>407476</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122428</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2756,7 +2749,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18535650" y="8214995"/>
+          <a:off x="18982055" y="6272530"/>
           <a:ext cx="1313180" cy="535940"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2824,16 +2817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>583979</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>107188</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>601759</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118618</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2842,7 +2835,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19204940" y="10867390"/>
+          <a:off x="17851120" y="4706620"/>
           <a:ext cx="1266825" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -2911,15 +2904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>179705</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>199584</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>150368</xdr:rowOff>
+      <xdr:colOff>668020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2099</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147828</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2928,7 +2921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18696305" y="8853170"/>
+          <a:off x="19184620" y="4221480"/>
           <a:ext cx="1391285" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3005,13 +2998,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>379730</xdr:colOff>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>648088</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138818</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>28448</xdr:rowOff>
     </xdr:to>
@@ -3022,7 +3015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7923530" y="10617200"/>
+          <a:off x="8100060" y="10617200"/>
           <a:ext cx="953770" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3090,16 +3083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>462915</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>245110</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>30712</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>139397</xdr:rowOff>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>498707</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>111457</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3108,7 +3101,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14864715" y="11836400"/>
+          <a:off x="16018510" y="11979910"/>
           <a:ext cx="1624965" cy="647065"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3176,16 +3169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>638038</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>63373</xdr:rowOff>
+      <xdr:colOff>349885</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>651373</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90678</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3194,7 +3187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12680950" y="12023725"/>
+          <a:off x="13380085" y="12222480"/>
           <a:ext cx="986790" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3246,16 +3239,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>83185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>120289</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>124333</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133624</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>151638</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3264,7 +3257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14667865" y="11055985"/>
+          <a:off x="15367000" y="11254740"/>
           <a:ext cx="1225550" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3332,16 +3325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>351790</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>40364</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>149733</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53699</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>5588</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3350,7 +3343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16125190" y="11081385"/>
+          <a:off x="16824325" y="11280140"/>
           <a:ext cx="1059815" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3418,16 +3411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>524510</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>307657</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>135669</xdr:rowOff>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>129857</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>56929</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3436,7 +3429,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21784310" y="8260080"/>
+          <a:off x="23663910" y="8867140"/>
           <a:ext cx="1154430" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3622,16 +3615,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>261620</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>635995</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>74168</xdr:rowOff>
+      <xdr:colOff>605515</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>71628</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3640,7 +3633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20835620" y="9119870"/>
+          <a:off x="20119340" y="9803130"/>
           <a:ext cx="1059815" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -3692,16 +3685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>349885</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>62103</xdr:rowOff>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25273</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3710,7 +3703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6522085" y="15107920"/>
+          <a:off x="8769350" y="15756890"/>
           <a:ext cx="1332865" cy="555625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -4327,28 +4320,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>583565</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>27940</xdr:rowOff>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
+          <a:stCxn id="2" idx="0"/>
           <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14043025" y="5291455"/>
-          <a:ext cx="256540" cy="51435"/>
+          <a:off x="14195425" y="8281035"/>
+          <a:ext cx="405765" cy="593090"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4377,15 +4370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>361315</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>535250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>92380</xdr:rowOff>
+      <xdr:colOff>604520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>92655</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>6655</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4394,7 +4387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12705715" y="5830570"/>
+          <a:off x="12948920" y="6944995"/>
           <a:ext cx="2916555" cy="776605"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -4610,15 +4603,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>485072</xdr:colOff>
+      <xdr:colOff>386647</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>105973</xdr:rowOff>
+      <xdr:rowOff>77398</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4627,7 +4620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15471775" y="6563360"/>
+          <a:off x="15373350" y="6534785"/>
           <a:ext cx="2157730" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -4695,29 +4688,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>563245</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>93980</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>635635</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="89" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15650845" y="5291455"/>
-          <a:ext cx="902335" cy="1271905"/>
+        <a:xfrm flipV="1">
+          <a:off x="15953740" y="7120255"/>
+          <a:ext cx="455295" cy="1160780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4745,16 +4737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>93980</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -4765,9 +4757,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14847570" y="7134225"/>
-          <a:ext cx="1705610" cy="1550035"/>
+        <a:xfrm>
+          <a:off x="16449675" y="7105650"/>
+          <a:ext cx="563880" cy="2145665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4795,16 +4787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>311785</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>119778</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>94036</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>601108</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107371</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4815,7 +4807,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="22257385" y="12078970"/>
+              <a:off x="20681315" y="12778105"/>
               <a:ext cx="1179195" cy="530860"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4937,7 +4929,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="22257385" y="12078970"/>
+              <a:off x="20681315" y="12778105"/>
               <a:ext cx="1179195" cy="530860"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5038,15 +5030,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>438785</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>654133</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:colOff>600158</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>83367</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5056,7 +5048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23755985" y="12307570"/>
+          <a:off x="22330410" y="12650470"/>
           <a:ext cx="1586865" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -5136,16 +5128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>119380</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>438785</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5156,9 +5148,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23436580" y="12346940"/>
-          <a:ext cx="319405" cy="278130"/>
+        <a:xfrm flipV="1">
+          <a:off x="21859875" y="12967970"/>
+          <a:ext cx="470535" cy="72390"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5186,16 +5178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>653415</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>210820</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5206,9 +5198,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25342215" y="12625070"/>
-          <a:ext cx="929005" cy="2348865"/>
+        <a:xfrm flipH="1">
+          <a:off x="23580725" y="12967970"/>
+          <a:ext cx="336550" cy="1229360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5236,16 +5228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>566863</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>50347</xdr:rowOff>
+      <xdr:colOff>56958</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>151947</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5254,7 +5246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23408640" y="12979400"/>
+          <a:off x="21527135" y="13423900"/>
           <a:ext cx="1846580" cy="615315"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -5334,16 +5326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5355,8 +5347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22846665" y="12609830"/>
-          <a:ext cx="561975" cy="676910"/>
+          <a:off x="21273135" y="13308330"/>
+          <a:ext cx="253365" cy="420370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5384,16 +5376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>210820</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5405,8 +5397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25254585" y="13286740"/>
-          <a:ext cx="1016635" cy="1687195"/>
+          <a:off x="23373715" y="13728700"/>
+          <a:ext cx="207010" cy="468630"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5434,16 +5426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>685165</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>37465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>102869</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>4334</xdr:rowOff>
+      <xdr:colOff>685164</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>43069</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5454,7 +5446,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="19991070" y="14953615"/>
+              <a:off x="19201765" y="17049750"/>
               <a:ext cx="1370965" cy="652145"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5619,7 +5611,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="19991070" y="14953615"/>
+              <a:off x="19201765" y="17049750"/>
               <a:ext cx="1370965" cy="652145"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5763,16 +5755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>276860</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>276860</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>67172</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>119877</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5781,7 +5773,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22222460" y="15024735"/>
+          <a:off x="20672425" y="16106140"/>
           <a:ext cx="2057400" cy="643890"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -5861,29 +5853,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>17780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>276860</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="108" idx="3"/>
+          <a:stCxn id="108" idx="0"/>
           <a:endCxn id="109" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21361400" y="15276830"/>
-          <a:ext cx="861060" cy="69850"/>
+        <a:xfrm flipV="1">
+          <a:off x="19886930" y="16427450"/>
+          <a:ext cx="785495" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5911,29 +5903,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>166370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>227965</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>97790</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="113" name="Straight Arrow Connector 112"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="109" idx="3"/>
-          <a:endCxn id="42" idx="1"/>
+          <a:endCxn id="42" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24279225" y="15253970"/>
-          <a:ext cx="1323340" cy="92710"/>
+          <a:off x="22729190" y="14752320"/>
+          <a:ext cx="851535" cy="1675130"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5961,16 +5953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5979,7 +5971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13725525" y="6953885"/>
+          <a:off x="16660495" y="5353050"/>
           <a:ext cx="2195195" cy="1141095"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -6073,14 +6065,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>485140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6091,9 +6083,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12829540" y="6908165"/>
-          <a:ext cx="162560" cy="132080"/>
+        <a:xfrm flipV="1">
+          <a:off x="12829540" y="6035675"/>
+          <a:ext cx="1193800" cy="872490"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6121,29 +6113,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="43" idx="2"/>
+          <a:stCxn id="43" idx="3"/>
           <a:endCxn id="126" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13485495" y="7314565"/>
-          <a:ext cx="245110" cy="212725"/>
+        <a:xfrm flipV="1">
+          <a:off x="15009495" y="5923280"/>
+          <a:ext cx="1650365" cy="112395"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6171,16 +6163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>371322</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>158034</xdr:rowOff>
+      <xdr:colOff>160502</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170099</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6189,7 +6181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17188180" y="10126980"/>
+          <a:off x="15605760" y="3966845"/>
           <a:ext cx="1699260" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6257,16 +6249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>600669</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40944</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>67945</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>558124</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65074</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6275,7 +6267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18627090" y="7684135"/>
+          <a:off x="19956145" y="8908415"/>
           <a:ext cx="1175385" cy="414655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6339,16 +6331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>391795</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6360,8 +6352,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15479395" y="8551545"/>
-          <a:ext cx="1269365" cy="402590"/>
+          <a:off x="17645380" y="9250680"/>
+          <a:ext cx="500380" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6389,29 +6381,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>6985</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:colOff>435610</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>677545</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="204" name="Straight Arrow Connector 203"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
+          <a:stCxn id="48" idx="0"/>
+          <a:endCxn id="50" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19189700" y="8750935"/>
-          <a:ext cx="201930" cy="101600"/>
+        <a:xfrm flipV="1">
+          <a:off x="19638010" y="4775835"/>
+          <a:ext cx="241935" cy="1496695"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6439,16 +6431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>421005</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6459,9 +6451,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14822805" y="7811135"/>
-          <a:ext cx="24765" cy="873125"/>
+        <a:xfrm flipH="1">
+          <a:off x="17013555" y="6205855"/>
+          <a:ext cx="741680" cy="3045460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6491,27 +6483,27 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>361315</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>604520</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="253" name="Straight Arrow Connector 252"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="0"/>
+          <a:stCxn id="34" idx="2"/>
           <a:endCxn id="80" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12294870" y="6216015"/>
-          <a:ext cx="410845" cy="417195"/>
+        <a:xfrm>
+          <a:off x="12294870" y="7187565"/>
+          <a:ext cx="654050" cy="145415"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6539,29 +6531,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>573405</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="255" name="Straight Arrow Connector 254"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="80" idx="0"/>
-          <a:endCxn id="3" idx="2"/>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14163675" y="5537200"/>
-          <a:ext cx="811530" cy="293370"/>
+        <a:xfrm>
+          <a:off x="14404340" y="7720965"/>
+          <a:ext cx="873125" cy="313690"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6871,12 +6863,12 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>608330</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -6890,8 +6882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13528675" y="8954135"/>
-          <a:ext cx="687705" cy="672465"/>
+          <a:off x="13528675" y="9524365"/>
+          <a:ext cx="2853055" cy="102235"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6919,29 +6911,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>132080</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>435610</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="369" name="Straight Arrow Connector 368"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="3"/>
-          <a:endCxn id="48" idx="1"/>
+          <a:stCxn id="47" idx="0"/>
+          <a:endCxn id="48" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17962880" y="8479790"/>
-          <a:ext cx="572770" cy="71755"/>
+          <a:off x="18753455" y="6807835"/>
+          <a:ext cx="884555" cy="2162810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7055,29 +7047,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="402" name="Straight Arrow Connector 401"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="176" idx="1"/>
-          <a:endCxn id="47" idx="0"/>
+          <a:endCxn id="47" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17356455" y="7894320"/>
-          <a:ext cx="1270635" cy="377190"/>
+          <a:off x="19359880" y="9112885"/>
+          <a:ext cx="595630" cy="137795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7105,16 +7097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>599440</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>347345</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>557530</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7125,9 +7117,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19801840" y="7894320"/>
-          <a:ext cx="433705" cy="86360"/>
+        <a:xfrm flipH="1">
+          <a:off x="21131530" y="9044940"/>
+          <a:ext cx="377190" cy="67945"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7155,16 +7147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>376555</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>54982</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>139728</xdr:rowOff>
+      <xdr:colOff>671567</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12728</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7173,7 +7165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6617970" y="9218295"/>
+          <a:off x="7234555" y="9262745"/>
           <a:ext cx="2352040" cy="522605"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -7381,14 +7373,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>250190</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
+      <xdr:colOff>183515</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347345</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -7402,8 +7394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7793990" y="9740265"/>
-          <a:ext cx="608965" cy="876935"/>
+          <a:off x="8413115" y="9785350"/>
+          <a:ext cx="163830" cy="831850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7433,13 +7425,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>54610</xdr:colOff>
+      <xdr:colOff>330835</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>330835</xdr:colOff>
+      <xdr:colOff>671195</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
@@ -7452,9 +7444,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8970010" y="9476740"/>
-          <a:ext cx="276225" cy="409575"/>
+        <a:xfrm flipH="1">
+          <a:off x="9246235" y="9523730"/>
+          <a:ext cx="340360" cy="362585"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7483,29 +7475,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>241935</xdr:colOff>
+      <xdr:colOff>255905</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183515</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="457" name="Straight Arrow Connector 456"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="405" idx="1"/>
+          <a:stCxn id="405" idx="2"/>
           <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6617335" y="9479280"/>
-          <a:ext cx="482600" cy="536575"/>
+        <a:xfrm flipH="1">
+          <a:off x="7113905" y="9785350"/>
+          <a:ext cx="1299210" cy="283210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7811,10 +7803,10 @@
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>80645</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7827,7 +7819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12294870" y="7187565"/>
-          <a:ext cx="971550" cy="2837180"/>
+          <a:ext cx="1670685" cy="3036570"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7855,16 +7847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>80645</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7876,8 +7868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13266420" y="9228455"/>
-          <a:ext cx="1581150" cy="796290"/>
+          <a:off x="13965555" y="9796780"/>
+          <a:ext cx="3048000" cy="427355"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7991,16 +7983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>97790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>278004</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114355</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>111634</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9580</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8009,7 +8001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18953480" y="9527540"/>
+          <a:off x="18101310" y="2907665"/>
           <a:ext cx="1212215" cy="530860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8057,16 +8049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>445342</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>140362</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>17352</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47652</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8075,7 +8067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17978120" y="10933430"/>
+          <a:off x="16178530" y="4839970"/>
           <a:ext cx="983615" cy="522605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8123,16 +8115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>645795</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>480143</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>151377</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220428</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93592</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8141,7 +8133,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15733395" y="9387840"/>
+          <a:off x="12730480" y="4015105"/>
           <a:ext cx="1205865" cy="535940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8191,27 +8183,27 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>562610</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="558" name="Straight Arrow Connector 557"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="2"/>
-          <a:endCxn id="552" idx="0"/>
+          <a:stCxn id="34" idx="0"/>
+          <a:endCxn id="552" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12294870" y="7187565"/>
-          <a:ext cx="4041140" cy="2200275"/>
+        <a:xfrm flipV="1">
+          <a:off x="12294870" y="4285615"/>
+          <a:ext cx="435610" cy="2347595"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8240,16 +8232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8261,8 +8253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18961735" y="11147425"/>
-          <a:ext cx="243205" cy="44450"/>
+          <a:off x="17162145" y="4986020"/>
+          <a:ext cx="688340" cy="118110"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8291,29 +8283,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>562610</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220345</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="566" name="Straight Arrow Connector 565"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="552" idx="2"/>
+          <a:stCxn id="552" idx="3"/>
           <a:endCxn id="175" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16336010" y="9923780"/>
-          <a:ext cx="852170" cy="364490"/>
+        <a:xfrm flipV="1">
+          <a:off x="13936345" y="4128135"/>
+          <a:ext cx="1668780" cy="157480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8342,16 +8334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8363,8 +8355,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18037810" y="9789795"/>
-          <a:ext cx="915670" cy="337185"/>
+          <a:off x="16452850" y="3169920"/>
+          <a:ext cx="1647825" cy="796290"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8394,28 +8386,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>149860</xdr:rowOff>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>356870</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:colOff>677545</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="578" name="Straight Arrow Connector 577"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="548" idx="0"/>
-          <a:endCxn id="50" idx="2"/>
+          <a:stCxn id="548" idx="3"/>
+          <a:endCxn id="50" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19391630" y="9408160"/>
-          <a:ext cx="167640" cy="118745"/>
+        <a:xfrm>
+          <a:off x="19312890" y="3169920"/>
+          <a:ext cx="567055" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8444,15 +8436,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>437515</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>111372</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>402202</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38846</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8462,7 +8454,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16896715" y="13378815"/>
+          <a:off x="17873345" y="13721715"/>
           <a:ext cx="1045210" cy="547370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8530,16 +8522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>560318</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>273933</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8548,7 +8540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16259175" y="12555220"/>
+          <a:off x="17344390" y="12780645"/>
           <a:ext cx="1445895" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8636,16 +8628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>97790</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180617</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>77691</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193952</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104996</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8654,7 +8646,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11756390" y="10984230"/>
+          <a:off x="12455525" y="11182985"/>
           <a:ext cx="2825750" cy="751840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -8746,16 +8738,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>550545</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>243898</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576580</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>269933</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8764,7 +8756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18381345" y="13154025"/>
+          <a:off x="19093180" y="13023215"/>
           <a:ext cx="1064895" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8804,15 +8796,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>549910</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576580</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -8825,8 +8817,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17941290" y="13569950"/>
-          <a:ext cx="439420" cy="81915"/>
+          <a:off x="18918555" y="13439775"/>
+          <a:ext cx="174625" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8854,15 +8846,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>522605</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -8875,8 +8867,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="16981805" y="13068935"/>
-          <a:ext cx="437515" cy="309245"/>
+          <a:off x="18067020" y="13294360"/>
+          <a:ext cx="325755" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8905,16 +8897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>29845</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>522605</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8926,8 +8918,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="16489045" y="12159615"/>
-          <a:ext cx="492760" cy="395605"/>
+          <a:off x="17643475" y="12303125"/>
+          <a:ext cx="423545" cy="476885"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8955,16 +8947,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>636905</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>245110</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>462280</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8976,8 +8968,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13667105" y="12159615"/>
-          <a:ext cx="1196975" cy="144145"/>
+          <a:off x="14366875" y="12303125"/>
+          <a:ext cx="1651635" cy="199390"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9005,16 +8997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9026,8 +9018,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13168630" y="10580370"/>
-          <a:ext cx="97790" cy="403860"/>
+          <a:off x="13868400" y="10778490"/>
+          <a:ext cx="97155" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9056,16 +9048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9077,8 +9069,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13168630" y="11736070"/>
-          <a:ext cx="8255" cy="287020"/>
+          <a:off x="13868400" y="11934190"/>
+          <a:ext cx="7620" cy="288290"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9106,16 +9098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>175242</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9056</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188577</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36361</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9124,7 +9116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14112875" y="10093960"/>
+          <a:off x="14812010" y="10292715"/>
           <a:ext cx="2520950" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -9204,16 +9196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>299085</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9224,9 +9216,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14847570" y="9228455"/>
-          <a:ext cx="525780" cy="864870"/>
+        <a:xfrm flipH="1">
+          <a:off x="16072485" y="9796780"/>
+          <a:ext cx="941070" cy="495935"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9254,16 +9246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>83185</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>299085</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9275,8 +9267,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15280640" y="10809605"/>
-          <a:ext cx="92710" cy="246380"/>
+          <a:off x="15979775" y="11008995"/>
+          <a:ext cx="92710" cy="245110"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9304,16 +9296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>299085</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>208915</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9325,8 +9317,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15373350" y="10809605"/>
-          <a:ext cx="1281430" cy="271780"/>
+          <a:off x="16072485" y="11008995"/>
+          <a:ext cx="1281430" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9354,16 +9346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>97790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50165</xdr:rowOff>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>516890</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9372,7 +9364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18107025" y="6441440"/>
+          <a:off x="20767040" y="6753225"/>
           <a:ext cx="3067050" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -9456,16 +9448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9477,8 +9469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17356455" y="6848475"/>
-          <a:ext cx="749935" cy="1423035"/>
+          <a:off x="18753455" y="7160260"/>
+          <a:ext cx="2013585" cy="1810385"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9506,16 +9498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>516890</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9527,8 +9519,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="21174075" y="6848475"/>
-          <a:ext cx="1187450" cy="1410970"/>
+          <a:off x="23834090" y="7160260"/>
+          <a:ext cx="406400" cy="1706245"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9556,16 +9548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>437515</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>652780</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>354965</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9577,8 +9569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19217005" y="7250430"/>
-          <a:ext cx="422910" cy="433070"/>
+          <a:off x="20540980" y="7562215"/>
+          <a:ext cx="1759585" cy="1345565"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9606,16 +9598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>481330</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>471806</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9624,7 +9616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21374100" y="10323830"/>
+          <a:off x="21055330" y="10323195"/>
           <a:ext cx="2733675" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -9728,16 +9720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>109220</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>476885</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9748,9 +9740,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="22740620" y="10837545"/>
-          <a:ext cx="106045" cy="1240790"/>
+        <a:xfrm flipV="1">
+          <a:off x="21273135" y="10836910"/>
+          <a:ext cx="1149350" cy="1940560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9779,15 +9771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>109220</xdr:colOff>
+      <xdr:colOff>476885</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9798,9 +9790,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22361525" y="8878570"/>
-          <a:ext cx="379095" cy="1444625"/>
+        <a:xfrm flipH="1">
+          <a:off x="22422485" y="9485630"/>
+          <a:ext cx="1818005" cy="836930"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9828,16 +9820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>105410</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>83185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>267334</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:colOff>198119</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9846,7 +9838,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24108410" y="10713085"/>
+          <a:off x="22667595" y="11171555"/>
           <a:ext cx="1532890" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -9914,16 +9906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>81915</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>243841</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>514986</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9932,7 +9924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24084915" y="11233150"/>
+          <a:off x="23670260" y="11786235"/>
           <a:ext cx="1533525" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -10000,16 +9992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10021,8 +10013,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22846665" y="10986770"/>
-          <a:ext cx="1261110" cy="1091565"/>
+          <a:off x="21273135" y="11445875"/>
+          <a:ext cx="1393825" cy="1331595"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10050,16 +10042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10071,8 +10063,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22846665" y="11501755"/>
-          <a:ext cx="1237615" cy="576580"/>
+          <a:off x="21273135" y="12054840"/>
+          <a:ext cx="2397125" cy="722630"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10101,15 +10093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>596266</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>89536</xdr:rowOff>
+      <xdr:colOff>172086</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>80011</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10118,7 +10110,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18950940" y="11843385"/>
+          <a:off x="18526760" y="10805160"/>
           <a:ext cx="2905125" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -10219,15 +10211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>357505</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10238,9 +10230,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20931505" y="8252460"/>
-          <a:ext cx="436245" cy="866775"/>
+        <a:xfrm flipH="1">
+          <a:off x="20652105" y="9314180"/>
+          <a:ext cx="1552575" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10275,9 +10267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10290,7 +10282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12294870" y="7187565"/>
-          <a:ext cx="6656070" cy="5125085"/>
+          <a:ext cx="6231890" cy="4083685"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10318,16 +10310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>29845</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10338,9 +10330,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16489045" y="12159615"/>
-          <a:ext cx="2461895" cy="153035"/>
+        <a:xfrm flipV="1">
+          <a:off x="17643475" y="11271250"/>
+          <a:ext cx="883285" cy="1031875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10531,15 +10523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>67945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:colOff>410210</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10551,8 +10543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6240145" y="10012680"/>
-          <a:ext cx="328295" cy="281940"/>
+          <a:off x="6240780" y="10012045"/>
+          <a:ext cx="341630" cy="331470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10794,29 +10786,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="696" name="Straight Arrow Connector 695"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="59" idx="0"/>
-          <a:endCxn id="692" idx="1"/>
+          <a:endCxn id="692" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7188200" y="14787880"/>
-          <a:ext cx="447040" cy="319405"/>
+          <a:off x="9435465" y="15076805"/>
+          <a:ext cx="70485" cy="679450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11114,16 +11106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>17491</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>307686</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11132,7 +11124,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16927830" y="16581755"/>
+          <a:off x="14474825" y="17067530"/>
           <a:ext cx="2977515" cy="942340"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -11264,16 +11256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>45085</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11282,7 +11274,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12379960" y="12766040"/>
+          <a:off x="13079095" y="12964795"/>
           <a:ext cx="3438525" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -11524,16 +11516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>169546</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201931</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11542,7 +11534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601075" y="13104495"/>
+          <a:off x="9364980" y="13138150"/>
           <a:ext cx="3181350" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -11674,16 +11666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>315595</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>248920</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>6928</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>248285</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>115513</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11692,7 +11684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17460595" y="17564100"/>
+          <a:off x="16774160" y="16472535"/>
           <a:ext cx="1990725" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -11889,10 +11881,10 @@
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>467995</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -11905,7 +11897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11381740" y="14787880"/>
-          <a:ext cx="5545455" cy="2265045"/>
+          <a:ext cx="3092450" cy="2747645"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11989,10 +11981,10 @@
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>315595</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -12005,7 +11997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11381740" y="14787880"/>
-          <a:ext cx="6078855" cy="3081020"/>
+          <a:ext cx="5391785" cy="1995170"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12035,12 +12027,12 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>408940</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>48260</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
@@ -12054,8 +12046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11381740" y="13163550"/>
-          <a:ext cx="998220" cy="1624330"/>
+          <a:off x="11381740" y="13362305"/>
+          <a:ext cx="1696720" cy="1425575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12083,29 +12075,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="716" name="Straight Arrow Connector 715"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="692" idx="0"/>
+          <a:stCxn id="692" idx="3"/>
           <a:endCxn id="701" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9505950" y="13885545"/>
-          <a:ext cx="682625" cy="619125"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10953750" y="13918565"/>
+          <a:ext cx="427990" cy="873760"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12133,10 +12125,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>380365</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393065</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -12154,8 +12146,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14096365" y="13555980"/>
-          <a:ext cx="1136650" cy="309880"/>
+          <a:off x="14794865" y="13755370"/>
+          <a:ext cx="438150" cy="110490"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12233,29 +12225,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="740" name="Straight Arrow Connector 739"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="552" idx="3"/>
+          <a:stCxn id="552" idx="0"/>
           <a:endCxn id="548" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16938625" y="9652635"/>
-          <a:ext cx="2014855" cy="137160"/>
+        <a:xfrm flipV="1">
+          <a:off x="13333095" y="3169920"/>
+          <a:ext cx="4767580" cy="844550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12284,16 +12276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>356870</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -12305,8 +12297,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18467070" y="10057765"/>
-          <a:ext cx="1092200" cy="875030"/>
+          <a:off x="16670020" y="3438525"/>
+          <a:ext cx="2037080" cy="1400810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12335,16 +12327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>562610</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>151130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -12356,8 +12348,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16336010" y="9923780"/>
-          <a:ext cx="1641475" cy="1268095"/>
+          <a:off x="13333095" y="4551045"/>
+          <a:ext cx="2845435" cy="553085"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12438,12 +12430,12 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>236855</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
@@ -12457,8 +12449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17381855" y="12609830"/>
-          <a:ext cx="5464810" cy="2639060"/>
+          <a:off x="17381855" y="13308330"/>
+          <a:ext cx="3891280" cy="1940560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12486,29 +12478,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>582295</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>102235</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>685165</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="834" name="Straight Arrow Connector 833"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="108" idx="2"/>
-          <a:endCxn id="698" idx="0"/>
+          <a:stCxn id="108" idx="1"/>
+          <a:endCxn id="698" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="18413095" y="15605125"/>
-          <a:ext cx="2263140" cy="976630"/>
+          <a:off x="17452340" y="17376140"/>
+          <a:ext cx="1749425" cy="159385"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12536,16 +12528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>248285</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>97790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>210820</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -12557,8 +12549,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19450685" y="15528290"/>
-          <a:ext cx="6820535" cy="2340610"/>
+          <a:off x="18764885" y="14752320"/>
+          <a:ext cx="4815840" cy="2030730"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12586,14 +12578,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>509270</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
@@ -12606,9 +12598,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15674340" y="12482830"/>
-          <a:ext cx="608330" cy="2108200"/>
+        <a:xfrm flipH="1">
+          <a:off x="16282670" y="12626975"/>
+          <a:ext cx="548005" cy="1964055"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12637,15 +12629,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>514985</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>90805</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -12657,8 +12649,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20403185" y="9674225"/>
-          <a:ext cx="964565" cy="2168525"/>
+          <a:off x="19979005" y="10357485"/>
+          <a:ext cx="673100" cy="447040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12686,29 +12678,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>573405</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>626745</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>67945</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="37" idx="2"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14975205" y="4886960"/>
-          <a:ext cx="53340" cy="153035"/>
+        <a:xfrm>
+          <a:off x="15277465" y="8532495"/>
+          <a:ext cx="740410" cy="146050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12736,16 +12728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>156845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -12757,8 +12749,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="18037810" y="10443845"/>
-          <a:ext cx="429260" cy="488950"/>
+          <a:off x="16452850" y="4284345"/>
+          <a:ext cx="217170" cy="554990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12788,9 +12780,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>54610</xdr:colOff>
+      <xdr:colOff>671195</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -12808,8 +12800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8970010" y="9476740"/>
-          <a:ext cx="1066800" cy="128270"/>
+          <a:off x="9586595" y="9523730"/>
+          <a:ext cx="450215" cy="81280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13047,7 +13039,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
+      <xdr:colOff>347345</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
@@ -13062,7 +13054,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="8176260" y="11171555"/>
-          <a:ext cx="226695" cy="611505"/>
+          <a:ext cx="400685" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13093,13 +13085,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>379730</xdr:colOff>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -13111,8 +13103,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7324725" y="10894695"/>
-          <a:ext cx="598805" cy="537210"/>
+          <a:off x="7324725" y="10894060"/>
+          <a:ext cx="775335" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13142,12 +13134,12 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>212090</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>401320</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
@@ -13161,8 +13153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12556490" y="10299700"/>
-          <a:ext cx="176530" cy="340995"/>
+          <a:off x="12556490" y="10499090"/>
+          <a:ext cx="875030" cy="141605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13191,15 +13183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>241935</xdr:colOff>
+      <xdr:colOff>255905</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -13211,8 +13203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7099935" y="10570210"/>
-          <a:ext cx="1076325" cy="1212215"/>
+          <a:off x="7113905" y="10623550"/>
+          <a:ext cx="1062355" cy="1159510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13240,8 +13232,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647065</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138430</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
@@ -13261,8 +13253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8876665" y="10640695"/>
-          <a:ext cx="1464945" cy="253365"/>
+          <a:off x="9053830" y="10640695"/>
+          <a:ext cx="1287780" cy="253365"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13342,15 +13334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>286385</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287020</xdr:colOff>
+      <xdr:colOff>347345</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -13361,9 +13353,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8397240" y="9077960"/>
-          <a:ext cx="119380" cy="1538605"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8515985" y="9077960"/>
+          <a:ext cx="60960" cy="1539240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13392,15 +13384,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>241935</xdr:colOff>
+      <xdr:colOff>255905</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>402590</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -13412,8 +13404,158 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7099935" y="8791575"/>
-          <a:ext cx="160655" cy="1224280"/>
+          <a:off x="7113905" y="8789670"/>
+          <a:ext cx="146685" cy="1278890"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="636" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23915370" y="9485630"/>
+          <a:ext cx="325120" cy="1685290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="639" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24240490" y="9485630"/>
+          <a:ext cx="683260" cy="2300605"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595630</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12447270" y="9001760"/>
+          <a:ext cx="1178560" cy="114935"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14815,8 +14957,8 @@
   <sheetPr/>
   <dimension ref="AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg2719\helo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C099FC-EF30-41B7-94CC-6C96D6085293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8445" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -695,23 +701,26 @@
   </si>
   <si>
     <t>Prop1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>拜尔分类定理</t>
+  </si>
+  <si>
+    <t>非空完备度量空间不是第一类</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -719,14 +728,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -734,371 +743,41 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1106,251 +785,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1361,68 +798,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -1436,9 +829,15 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>107206</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1"/>
+        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1519,7 +918,6 @@
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1538,9 +936,15 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Alternate Process 2"/>
+        <xdr:cNvPr id="3" name="Flowchart: Alternate Process 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1621,7 +1025,6 @@
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1640,9 +1043,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>159258</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Flowchart: Alternate Process 33"/>
+        <xdr:cNvPr id="34" name="Flowchart: Alternate Process 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1710,9 +1119,15 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>37714</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Flowchart: Alternate Process 34"/>
+        <xdr:cNvPr id="35" name="Flowchart: Alternate Process 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1796,9 +1211,15 @@
       <xdr:row>111</xdr:row>
       <xdr:rowOff>88514</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Flowchart: Alternate Process 35"/>
+        <xdr:cNvPr id="36" name="Flowchart: Alternate Process 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1882,9 +1303,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>16594</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Flowchart: Alternate Process 36"/>
+        <xdr:cNvPr id="37" name="Flowchart: Alternate Process 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1952,9 +1379,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Flowchart: Alternate Process 37"/>
+        <xdr:cNvPr id="38" name="Flowchart: Alternate Process 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2038,9 +1471,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>24405</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Flowchart: Alternate Process 38"/>
+        <xdr:cNvPr id="39" name="Flowchart: Alternate Process 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2124,9 +1563,15 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>149733</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Flowchart: Alternate Process 40"/>
+        <xdr:cNvPr id="41" name="Flowchart: Alternate Process 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2210,9 +1655,15 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>8128</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Flowchart: Alternate Process 41"/>
+        <xdr:cNvPr id="42" name="Flowchart: Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2296,9 +1747,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>144653</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flowchart: Alternate Process 42"/>
+        <xdr:cNvPr id="43" name="Flowchart: Alternate Process 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2366,9 +1823,15 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>70358</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Flowchart: Alternate Process 43"/>
+        <xdr:cNvPr id="44" name="Flowchart: Alternate Process 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2452,9 +1915,15 @@
       <xdr:row>113</xdr:row>
       <xdr:rowOff>77978</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Flowchart: Alternate Process 44"/>
+        <xdr:cNvPr id="45" name="Flowchart: Alternate Process 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2538,9 +2007,15 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>55890</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Flowchart: Alternate Process 45"/>
+        <xdr:cNvPr id="46" name="Flowchart: Alternate Process 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2640,9 +2115,15 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>96393</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Flowchart: Alternate Process 46"/>
+        <xdr:cNvPr id="47" name="Flowchart: Alternate Process 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2732,25 +2213,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>465455</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
+      <xdr:colOff>577514</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>407476</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>122428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:colOff>519535</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Flowchart: Alternate Process 47"/>
+        <xdr:cNvPr id="48" name="Flowchart: Alternate Process 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18982055" y="6272530"/>
-          <a:ext cx="1313180" cy="535940"/>
+          <a:off x="16915690" y="7664300"/>
+          <a:ext cx="1152257" cy="593598"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2828,9 +2315,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>118618</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Flowchart: Alternate Process 48"/>
+        <xdr:cNvPr id="49" name="Flowchart: Alternate Process 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2914,9 +2407,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>147828</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Flowchart: Alternate Process 49"/>
+        <xdr:cNvPr id="50" name="Flowchart: Alternate Process 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3008,9 +2507,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>28448</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Flowchart: Alternate Process 50"/>
+        <xdr:cNvPr id="51" name="Flowchart: Alternate Process 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3094,9 +2599,15 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>111457</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Flowchart: Alternate Process 51"/>
+        <xdr:cNvPr id="52" name="Flowchart: Alternate Process 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3180,9 +2691,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>90678</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Flowchart: Alternate Process 52"/>
+        <xdr:cNvPr id="53" name="Flowchart: Alternate Process 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3250,9 +2767,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>151638</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Flowchart: Alternate Process 53"/>
+        <xdr:cNvPr id="54" name="Flowchart: Alternate Process 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3336,9 +2859,15 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>5588</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Flowchart: Alternate Process 54"/>
+        <xdr:cNvPr id="55" name="Flowchart: Alternate Process 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3422,9 +2951,15 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>56929</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Flowchart: Alternate Process 55"/>
+        <xdr:cNvPr id="56" name="Flowchart: Alternate Process 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3524,9 +3059,15 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>94847</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Flowchart: Alternate Process 56"/>
+        <xdr:cNvPr id="57" name="Flowchart: Alternate Process 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3626,9 +3167,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>71628</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Flowchart: Alternate Process 57"/>
+        <xdr:cNvPr id="58" name="Flowchart: Alternate Process 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3696,9 +3243,15 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>25273</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Flowchart: Alternate Process 58"/>
+        <xdr:cNvPr id="59" name="Flowchart: Alternate Process 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3782,9 +3335,15 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>26543</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Flowchart: Alternate Process 59"/>
+        <xdr:cNvPr id="60" name="Flowchart: Alternate Process 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3884,9 +3443,15 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Flowchart: Alternate Process 60"/>
+        <xdr:cNvPr id="61" name="Flowchart: Alternate Process 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3975,26 +3540,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139065</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>337848</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>147956</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>94241</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>69515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>293024</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Flowchart: Alternate Process 61"/>
+        <xdr:cNvPr id="62" name="Flowchart: Alternate Process 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11111865" y="19693255"/>
-          <a:ext cx="1570355" cy="514350"/>
+          <a:off x="16432417" y="11690015"/>
+          <a:ext cx="1409019" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4072,9 +3643,15 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>66548</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Flowchart: Alternate Process 62"/>
+        <xdr:cNvPr id="63" name="Flowchart: Alternate Process 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4158,9 +3735,15 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>98933</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Flowchart: Alternate Process 63"/>
+        <xdr:cNvPr id="64" name="Flowchart: Alternate Process 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4244,9 +3827,15 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>53213</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Flowchart: Alternate Process 64"/>
+        <xdr:cNvPr id="65" name="Flowchart: Alternate Process 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4330,9 +3919,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
           <a:endCxn id="3" idx="1"/>
@@ -4380,9 +3975,15 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>6655</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Flowchart: Preparation 79"/>
+        <xdr:cNvPr id="80" name="Flowchart: Preparation 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4527,9 +4128,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>92408</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Oval 83"/>
+        <xdr:cNvPr id="84" name="Oval 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4613,9 +4220,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>77398</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Flowchart: Preparation 88"/>
+        <xdr:cNvPr id="89" name="Flowchart: Preparation 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4699,9 +4312,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -4748,9 +4367,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="89" idx="2"/>
           <a:endCxn id="39" idx="0"/>
@@ -4798,11 +4423,17 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>107371</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="Rectangle 93"/>
+            <xdr:cNvPr id="94" name="Rectangle 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4921,7 +4552,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="Rectangle 93"/>
@@ -5041,9 +4672,15 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>83367</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Arrow: Right 95"/>
+        <xdr:cNvPr id="96" name="Arrow: Right 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5139,9 +4776,15 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="3"/>
           <a:endCxn id="96" idx="1"/>
@@ -5189,9 +4832,15 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="96" idx="3"/>
           <a:endCxn id="42" idx="0"/>
@@ -5239,9 +4888,15 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>151947</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Arrow: Right 100"/>
+        <xdr:cNvPr id="101" name="Arrow: Right 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5337,9 +4992,15 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="2"/>
           <a:endCxn id="101" idx="1"/>
@@ -5387,9 +5048,15 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="Straight Arrow Connector 104"/>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="101" idx="3"/>
           <a:endCxn id="42" idx="0"/>
@@ -5437,11 +5104,17 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>43069</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="108" name="Rectangle 107"/>
+            <xdr:cNvPr id="108" name="Rectangle 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5603,7 +5276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="Rectangle 107"/>
@@ -5766,9 +5439,15 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>119877</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Arrow: Right 108"/>
+        <xdr:cNvPr id="109" name="Arrow: Right 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5864,9 +5543,15 @@
       <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
+        <xdr:cNvPr id="111" name="Straight Arrow Connector 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="108" idx="0"/>
           <a:endCxn id="109" idx="1"/>
@@ -5914,9 +5599,15 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="Straight Arrow Connector 112"/>
+        <xdr:cNvPr id="113" name="Straight Arrow Connector 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="109" idx="3"/>
           <a:endCxn id="42" idx="2"/>
@@ -5954,25 +5645,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>201295</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:colOff>559884</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>92561</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>184112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Arrow: Left-Right 125"/>
+        <xdr:cNvPr id="126" name="Arrow: Left-Right 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16660495" y="5353050"/>
-          <a:ext cx="2195195" cy="1141095"/>
+          <a:off x="15082708" y="6167717"/>
+          <a:ext cx="1953147" cy="1255395"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -6074,9 +5771,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="Straight Arrow Connector 131"/>
+        <xdr:cNvPr id="132" name="Straight Arrow Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="43" idx="1"/>
@@ -6114,28 +5817,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:colOff>599302</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>200660</xdr:colOff>
+      <xdr:colOff>559884</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>127915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="3"/>
           <a:endCxn id="126" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15009495" y="5923280"/>
-          <a:ext cx="1650365" cy="112395"/>
+        <a:xfrm>
+          <a:off x="13306773" y="6696329"/>
+          <a:ext cx="1775935" cy="99086"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6174,9 +5883,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>170099</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="Rectangle 174"/>
+        <xdr:cNvPr id="175" name="Rectangle 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6260,9 +5975,15 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>65074</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="Rectangle 175"/>
+        <xdr:cNvPr id="176" name="Rectangle 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6342,9 +6063,15 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="182" name="Straight Arrow Connector 181"/>
+        <xdr:cNvPr id="182" name="Straight Arrow Connector 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
           <a:endCxn id="47" idx="1"/>
@@ -6382,19 +6109,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>435610</xdr:colOff>
+      <xdr:colOff>548525</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:rowOff>147828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>677545</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:colOff>604281</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="204" name="Straight Arrow Connector 203"/>
+        <xdr:cNvPr id="204" name="Straight Arrow Connector 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="0"/>
           <a:endCxn id="50" idx="2"/>
@@ -6402,8 +6135,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19638010" y="4775835"/>
-          <a:ext cx="241935" cy="1496695"/>
+          <a:off x="17491819" y="5291328"/>
+          <a:ext cx="55756" cy="2372972"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6432,19 +6165,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>554355</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>610235</xdr:colOff>
+      <xdr:colOff>549730</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>326223</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="246" name="Straight Arrow Connector 245"/>
+        <xdr:cNvPr id="246" name="Straight Arrow Connector 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="126" idx="5"/>
           <a:endCxn id="39" idx="0"/>
@@ -6452,8 +6191,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17013555" y="6205855"/>
-          <a:ext cx="741680" cy="3045460"/>
+          <a:off x="15072554" y="7109263"/>
+          <a:ext cx="986728" cy="3152337"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6492,9 +6231,15 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="253" name="Straight Arrow Connector 252"/>
+        <xdr:cNvPr id="253" name="Straight Arrow Connector 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="2"/>
           <a:endCxn id="80" idx="1"/>
@@ -6542,9 +6287,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="255" name="Straight Arrow Connector 254"/>
+        <xdr:cNvPr id="255" name="Straight Arrow Connector 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="80" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -6592,9 +6343,15 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="Flowchart: Preparation 308"/>
+        <xdr:cNvPr id="309" name="Flowchart: Preparation 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6678,9 +6435,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="Oval 309"/>
+        <xdr:cNvPr id="310" name="Oval 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6736,9 +6499,15 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="316" name="Straight Arrow Connector 315"/>
+        <xdr:cNvPr id="316" name="Straight Arrow Connector 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="309" idx="2"/>
           <a:endCxn id="35" idx="0"/>
@@ -6786,9 +6555,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>141854</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="Flowchart: Preparation 316"/>
+        <xdr:cNvPr id="317" name="Flowchart: Preparation 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6872,9 +6647,15 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="352" name="Straight Arrow Connector 351"/>
+        <xdr:cNvPr id="352" name="Straight Arrow Connector 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="317" idx="3"/>
           <a:endCxn id="39" idx="1"/>
@@ -6912,19 +6693,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>236855</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>121285</xdr:rowOff>
+      <xdr:colOff>236911</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>435610</xdr:colOff>
+      <xdr:colOff>548525</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="369" name="Straight Arrow Connector 368"/>
+        <xdr:cNvPr id="369" name="Straight Arrow Connector 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="0"/>
           <a:endCxn id="48" idx="2"/>
@@ -6932,8 +6719,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18753455" y="6807835"/>
-          <a:ext cx="884555" cy="2162810"/>
+          <a:off x="16575087" y="8257898"/>
+          <a:ext cx="916732" cy="1703347"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6972,9 +6759,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>163153</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="Flowchart: Preparation 373"/>
+        <xdr:cNvPr id="374" name="Flowchart: Preparation 373">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7058,9 +6851,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="402" name="Straight Arrow Connector 401"/>
+        <xdr:cNvPr id="402" name="Straight Arrow Connector 401">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="176" idx="1"/>
           <a:endCxn id="47" idx="3"/>
@@ -7108,9 +6907,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="404" name="Straight Arrow Connector 403"/>
+        <xdr:cNvPr id="404" name="Straight Arrow Connector 403">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="1"/>
           <a:endCxn id="176" idx="3"/>
@@ -7158,9 +6963,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>12728</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="Flowchart: Preparation 404"/>
+        <xdr:cNvPr id="405" name="Flowchart: Preparation 404">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7268,9 +7079,15 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="413" name="Straight Arrow Connector 412"/>
+        <xdr:cNvPr id="413" name="Straight Arrow Connector 412">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="310" idx="7"/>
           <a:endCxn id="317" idx="1"/>
@@ -7318,9 +7135,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>138513</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="437" name="Rectangle 436"/>
+        <xdr:cNvPr id="437" name="Rectangle 436">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7384,9 +7207,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="449" name="Straight Arrow Connector 448"/>
+        <xdr:cNvPr id="449" name="Straight Arrow Connector 448">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="0"/>
           <a:endCxn id="405" idx="2"/>
@@ -7435,9 +7264,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="451" name="Straight Arrow Connector 450"/>
+        <xdr:cNvPr id="451" name="Straight Arrow Connector 450">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C3010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="405" idx="3"/>
           <a:endCxn id="437" idx="0"/>
@@ -7486,9 +7321,15 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="457" name="Straight Arrow Connector 456"/>
+        <xdr:cNvPr id="457" name="Straight Arrow Connector 456">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="405" idx="2"/>
           <a:endCxn id="38" idx="0"/>
@@ -7537,9 +7378,15 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>84123</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="458" name="Flowchart: Preparation 457"/>
+        <xdr:cNvPr id="458" name="Flowchart: Preparation 457">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7647,9 +7494,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="482" name="Straight Arrow Connector 481"/>
+        <xdr:cNvPr id="482" name="Straight Arrow Connector 481">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="458" idx="0"/>
           <a:endCxn id="310" idx="3"/>
@@ -7698,9 +7551,15 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>141246</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="522" name="Flowchart: Preparation 521"/>
+        <xdr:cNvPr id="522" name="Flowchart: Preparation 521">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7808,9 +7667,15 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="528" name="Straight Arrow Connector 527"/>
+        <xdr:cNvPr id="528" name="Straight Arrow Connector 527">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="2"/>
           <a:endCxn id="41" idx="0"/>
@@ -7858,9 +7723,15 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="530" name="Straight Arrow Connector 529"/>
+        <xdr:cNvPr id="530" name="Straight Arrow Connector 529">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
           <a:endCxn id="41" idx="0"/>
@@ -7908,9 +7779,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>49197</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="533" name="Flowchart: Preparation 532"/>
+        <xdr:cNvPr id="533" name="Flowchart: Preparation 532">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7994,9 +7871,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9580</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="548" name="Rectangle 547"/>
+        <xdr:cNvPr id="548" name="Rectangle 547">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8060,9 +7943,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>47652</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="551" name="Rectangle 550"/>
+        <xdr:cNvPr id="551" name="Rectangle 550">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8126,9 +8015,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>93592</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="552" name="Rectangle 551"/>
+        <xdr:cNvPr id="552" name="Rectangle 551">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8192,9 +8087,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="558" name="Straight Arrow Connector 557"/>
+        <xdr:cNvPr id="558" name="Straight Arrow Connector 557">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="0"/>
           <a:endCxn id="552" idx="1"/>
@@ -8243,9 +8144,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="562" name="Straight Arrow Connector 561"/>
+        <xdr:cNvPr id="562" name="Straight Arrow Connector 561">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="551" idx="3"/>
           <a:endCxn id="49" idx="1"/>
@@ -8294,9 +8201,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="566" name="Straight Arrow Connector 565"/>
+        <xdr:cNvPr id="566" name="Straight Arrow Connector 565">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="552" idx="3"/>
           <a:endCxn id="175" idx="1"/>
@@ -8345,9 +8258,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="576" name="Straight Arrow Connector 575"/>
+        <xdr:cNvPr id="576" name="Straight Arrow Connector 575">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="175" idx="0"/>
           <a:endCxn id="548" idx="1"/>
@@ -8396,9 +8315,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="578" name="Straight Arrow Connector 577"/>
+        <xdr:cNvPr id="578" name="Straight Arrow Connector 577">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="548" idx="3"/>
           <a:endCxn id="50" idx="0"/>
@@ -8447,9 +8372,15 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>38846</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="580" name="Rectangle 579"/>
+        <xdr:cNvPr id="580" name="Rectangle 579">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8533,9 +8464,15 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="581" name="Rectangle 580"/>
+        <xdr:cNvPr id="581" name="Rectangle 580">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8639,9 +8576,15 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>104996</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="582" name="Flowchart: Preparation 581"/>
+        <xdr:cNvPr id="582" name="Flowchart: Preparation 581">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8749,9 +8692,15 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="583" name="Oval 582"/>
+        <xdr:cNvPr id="583" name="Oval 582">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8807,9 +8756,15 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="585" name="Straight Arrow Connector 584"/>
+        <xdr:cNvPr id="585" name="Straight Arrow Connector 584">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="583" idx="2"/>
           <a:endCxn id="580" idx="3"/>
@@ -8857,9 +8812,15 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="587" name="Straight Arrow Connector 586"/>
+        <xdr:cNvPr id="587" name="Straight Arrow Connector 586">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="580" idx="0"/>
           <a:endCxn id="581" idx="2"/>
@@ -8908,9 +8869,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="590" name="Straight Arrow Connector 589"/>
+        <xdr:cNvPr id="590" name="Straight Arrow Connector 589">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="581" idx="0"/>
           <a:endCxn id="52" idx="3"/>
@@ -8958,9 +8925,15 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="593" name="Straight Arrow Connector 592"/>
+        <xdr:cNvPr id="593" name="Straight Arrow Connector 592">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="52" idx="1"/>
           <a:endCxn id="53" idx="3"/>
@@ -9008,9 +8981,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="595" name="Straight Arrow Connector 594"/>
+        <xdr:cNvPr id="595" name="Straight Arrow Connector 594">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="582" idx="0"/>
           <a:endCxn id="41" idx="2"/>
@@ -9059,9 +9038,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="598" name="Straight Arrow Connector 597"/>
+        <xdr:cNvPr id="598" name="Straight Arrow Connector 597">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="53" idx="0"/>
           <a:endCxn id="582" idx="2"/>
@@ -9109,9 +9094,15 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>36361</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="602" name="Flowchart: Preparation 601"/>
+        <xdr:cNvPr id="602" name="Flowchart: Preparation 601">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9207,9 +9198,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="604" name="Straight Arrow Connector 603"/>
+        <xdr:cNvPr id="604" name="Straight Arrow Connector 603">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
           <a:endCxn id="602" idx="0"/>
@@ -9257,9 +9254,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="606" name="Straight Arrow Connector 605"/>
+        <xdr:cNvPr id="606" name="Straight Arrow Connector 605">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="0"/>
           <a:endCxn id="602" idx="2"/>
@@ -9307,9 +9310,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="608" name="Straight Arrow Connector 607"/>
+        <xdr:cNvPr id="608" name="Straight Arrow Connector 607">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="602" idx="2"/>
           <a:endCxn id="55" idx="0"/>
@@ -9346,26 +9355,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>516890</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>271480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>595331</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="620" name="Flowchart: Preparation 619"/>
+        <xdr:cNvPr id="620" name="Flowchart: Preparation 619">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20767040" y="6753225"/>
-          <a:ext cx="3067050" cy="809625"/>
+          <a:off x="17819892" y="8583145"/>
+          <a:ext cx="2744321" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
           <a:avLst/>
@@ -9449,19 +9464,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>236855</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
+      <xdr:colOff>236911</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>271480</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="626" name="Straight Arrow Connector 625"/>
+        <xdr:cNvPr id="626" name="Straight Arrow Connector 625">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="0"/>
           <a:endCxn id="620" idx="1"/>
@@ -9469,8 +9490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18753455" y="7160260"/>
-          <a:ext cx="2013585" cy="1810385"/>
+          <a:off x="16575087" y="9035583"/>
+          <a:ext cx="1244805" cy="925662"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9498,20 +9519,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>516890</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>595331</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>237490</xdr:colOff>
+      <xdr:colOff>238283</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="628" name="Straight Arrow Connector 627"/>
+        <xdr:cNvPr id="628" name="Straight Arrow Connector 627">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="0"/>
           <a:endCxn id="620" idx="3"/>
@@ -9519,8 +9546,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="23834090" y="7160260"/>
-          <a:ext cx="406400" cy="1706245"/>
+          <a:off x="20564213" y="9035583"/>
+          <a:ext cx="853188" cy="803107"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9548,20 +9575,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>652780</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>354965</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10476</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>433406</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="630" name="Straight Arrow Connector 629"/>
+        <xdr:cNvPr id="630" name="Straight Arrow Connector 629">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="620" idx="2"/>
           <a:endCxn id="176" idx="0"/>
@@ -9569,8 +9602,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20540980" y="7562215"/>
-          <a:ext cx="1759585" cy="1345565"/>
+          <a:off x="18164005" y="9488020"/>
+          <a:ext cx="1028048" cy="391945"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9609,9 +9642,15 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="631" name="Flowchart: Preparation 630"/>
+        <xdr:cNvPr id="631" name="Flowchart: Preparation 630">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9731,9 +9770,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="633" name="Straight Arrow Connector 632"/>
+        <xdr:cNvPr id="633" name="Straight Arrow Connector 632">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="0"/>
           <a:endCxn id="631" idx="2"/>
@@ -9781,9 +9826,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="635" name="Straight Arrow Connector 634"/>
+        <xdr:cNvPr id="635" name="Straight Arrow Connector 634">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="2"/>
           <a:endCxn id="631" idx="0"/>
@@ -9831,9 +9882,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="636" name="Arrow: Right 635"/>
+        <xdr:cNvPr id="636" name="Arrow: Right 635">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9917,9 +9974,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="639" name="Arrow: Right 638"/>
+        <xdr:cNvPr id="639" name="Arrow: Right 638">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10003,9 +10066,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="641" name="Straight Arrow Connector 640"/>
+        <xdr:cNvPr id="641" name="Straight Arrow Connector 640">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="0"/>
           <a:endCxn id="636" idx="1"/>
@@ -10053,9 +10122,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="643" name="Straight Arrow Connector 642"/>
+        <xdr:cNvPr id="643" name="Straight Arrow Connector 642">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="0"/>
           <a:endCxn id="639" idx="1"/>
@@ -10093,25 +10168,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>346337</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>172086</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>80011</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+      <xdr:colOff>508263</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="645" name="Flowchart: Preparation 644"/>
+        <xdr:cNvPr id="645" name="Flowchart: Preparation 644">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18526760" y="10805160"/>
-          <a:ext cx="2905125" cy="933450"/>
+          <a:off x="16684513" y="12363898"/>
+          <a:ext cx="2582397" cy="1028701"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
           <a:avLst/>
@@ -10221,9 +10302,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="651" name="Straight Arrow Connector 650"/>
+        <xdr:cNvPr id="651" name="Straight Arrow Connector 650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="2"/>
           <a:endCxn id="58" idx="0"/>
@@ -10261,19 +10348,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
+      <xdr:colOff>598793</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>159258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:colOff>346337</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="656" name="Straight Arrow Connector 655"/>
+        <xdr:cNvPr id="656" name="Straight Arrow Connector 655">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="2"/>
           <a:endCxn id="645" idx="1"/>
@@ -10281,8 +10374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12294870" y="7187565"/>
-          <a:ext cx="6231890" cy="4083685"/>
+          <a:off x="10885793" y="7969758"/>
+          <a:ext cx="5798720" cy="4908491"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10311,19 +10404,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>498707</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
+      <xdr:colOff>346337</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:rowOff>130659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="660" name="Straight Arrow Connector 659"/>
+        <xdr:cNvPr id="660" name="Straight Arrow Connector 659">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="52" idx="3"/>
           <a:endCxn id="645" idx="1"/>
@@ -10331,8 +10430,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17643475" y="11271250"/>
-          <a:ext cx="883285" cy="1031875"/>
+          <a:off x="15626648" y="12878249"/>
+          <a:ext cx="1057865" cy="777910"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10371,9 +10470,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="679" name="Flowchart: Preparation 678"/>
+        <xdr:cNvPr id="679" name="Flowchart: Preparation 678">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10533,9 +10638,15 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="687" name="Straight Arrow Connector 686"/>
+        <xdr:cNvPr id="687" name="Straight Arrow Connector 686">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="1"/>
           <a:endCxn id="679" idx="3"/>
@@ -10583,9 +10694,15 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="691" name="Straight Arrow Connector 690"/>
+        <xdr:cNvPr id="691" name="Straight Arrow Connector 690">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="1"/>
           <a:endCxn id="679" idx="0"/>
@@ -10633,9 +10750,15 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>160656</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="692" name="Flowchart: Preparation 691"/>
+        <xdr:cNvPr id="692" name="Flowchart: Preparation 691">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10747,9 +10870,15 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="694" name="Straight Arrow Connector 693"/>
+        <xdr:cNvPr id="694" name="Straight Arrow Connector 693">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="679" idx="2"/>
           <a:endCxn id="692" idx="0"/>
@@ -10797,9 +10926,15 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="696" name="Straight Arrow Connector 695"/>
+        <xdr:cNvPr id="696" name="Straight Arrow Connector 695">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="59" idx="0"/>
           <a:endCxn id="692" idx="2"/>
@@ -10847,9 +10982,15 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="697" name="Flowchart: Preparation 696"/>
+        <xdr:cNvPr id="697" name="Flowchart: Preparation 696">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11117,9 +11258,15 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="698" name="Flowchart: Preparation 697"/>
+        <xdr:cNvPr id="698" name="Flowchart: Preparation 697">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11267,9 +11414,15 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>39370</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="699" name="Flowchart: Preparation 698"/>
+        <xdr:cNvPr id="699" name="Flowchart: Preparation 698">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11417,9 +11570,15 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="700" name="Flowchart: Preparation 699"/>
+        <xdr:cNvPr id="700" name="Flowchart: Preparation 699">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BC020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11527,9 +11686,15 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="701" name="Flowchart: Preparation 700"/>
+        <xdr:cNvPr id="701" name="Flowchart: Preparation 700">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11677,9 +11842,15 @@
       <xdr:row>99</xdr:row>
       <xdr:rowOff>115513</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="703" name="Arrow: Right 702"/>
+        <xdr:cNvPr id="703" name="Arrow: Right 702">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11836,9 +12007,15 @@
       <xdr:row>92</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="706" name="Straight Arrow Connector 705"/>
+        <xdr:cNvPr id="706" name="Straight Arrow Connector 705">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C2020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="692" idx="3"/>
           <a:endCxn id="697" idx="1"/>
@@ -11886,9 +12063,15 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="708" name="Straight Arrow Connector 707"/>
+        <xdr:cNvPr id="708" name="Straight Arrow Connector 707">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="692" idx="3"/>
           <a:endCxn id="698" idx="1"/>
@@ -11936,9 +12119,15 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="710" name="Straight Arrow Connector 709"/>
+        <xdr:cNvPr id="710" name="Straight Arrow Connector 709">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="692" idx="3"/>
           <a:endCxn id="700" idx="1"/>
@@ -11986,9 +12175,15 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="712" name="Straight Arrow Connector 711"/>
+        <xdr:cNvPr id="712" name="Straight Arrow Connector 711">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="692" idx="3"/>
           <a:endCxn id="703" idx="1"/>
@@ -12036,9 +12231,15 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="714" name="Straight Arrow Connector 713"/>
+        <xdr:cNvPr id="714" name="Straight Arrow Connector 713">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="692" idx="3"/>
           <a:endCxn id="699" idx="1"/>
@@ -12086,9 +12287,15 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="716" name="Straight Arrow Connector 715"/>
+        <xdr:cNvPr id="716" name="Straight Arrow Connector 715">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CC020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="692" idx="3"/>
           <a:endCxn id="701" idx="2"/>
@@ -12136,9 +12343,15 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="732" name="Straight Arrow Connector 731"/>
+        <xdr:cNvPr id="732" name="Straight Arrow Connector 731">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DC020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="0"/>
           <a:endCxn id="699" idx="2"/>
@@ -12186,9 +12399,15 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="734" name="Straight Arrow Connector 733"/>
+        <xdr:cNvPr id="734" name="Straight Arrow Connector 733">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="2"/>
           <a:endCxn id="700" idx="0"/>
@@ -12236,9 +12455,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="740" name="Straight Arrow Connector 739"/>
+        <xdr:cNvPr id="740" name="Straight Arrow Connector 739">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E4020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="552" idx="0"/>
           <a:endCxn id="548" idx="1"/>
@@ -12287,9 +12512,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="742" name="Straight Arrow Connector 741"/>
+        <xdr:cNvPr id="742" name="Straight Arrow Connector 741">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E6020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="551" idx="0"/>
           <a:endCxn id="548" idx="2"/>
@@ -12338,9 +12569,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="744" name="Straight Arrow Connector 743"/>
+        <xdr:cNvPr id="744" name="Straight Arrow Connector 743">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E8020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="552" idx="2"/>
           <a:endCxn id="551" idx="1"/>
@@ -12389,9 +12626,15 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="755" name="Straight Arrow Connector 754"/>
+        <xdr:cNvPr id="755" name="Straight Arrow Connector 754">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F3020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="60" idx="2"/>
           <a:endCxn id="692" idx="1"/>
@@ -12439,9 +12682,15 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="831" name="Straight Arrow Connector 830"/>
+        <xdr:cNvPr id="831" name="Straight Arrow Connector 830">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="94" idx="2"/>
           <a:endCxn id="697" idx="0"/>
@@ -12489,9 +12738,15 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="834" name="Straight Arrow Connector 833"/>
+        <xdr:cNvPr id="834" name="Straight Arrow Connector 833">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="108" idx="1"/>
           <a:endCxn id="698" idx="3"/>
@@ -12539,9 +12794,15 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="838" name="Straight Arrow Connector 837"/>
+        <xdr:cNvPr id="838" name="Straight Arrow Connector 837">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="703" idx="3"/>
           <a:endCxn id="42" idx="2"/>
@@ -12589,9 +12850,15 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="840" name="Straight Arrow Connector 839"/>
+        <xdr:cNvPr id="840" name="Straight Arrow Connector 839">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="52" idx="2"/>
           <a:endCxn id="700" idx="0"/>
@@ -12629,19 +12896,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>90805</xdr:colOff>
+      <xdr:colOff>427300</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:rowOff>71628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>78105</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
+      <xdr:colOff>111007</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171898</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="849" name="Straight Arrow Connector 848"/>
+        <xdr:cNvPr id="849" name="Straight Arrow Connector 848">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="58" idx="2"/>
           <a:endCxn id="645" idx="0"/>
@@ -12649,8 +12922,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19979005" y="10357485"/>
-          <a:ext cx="673100" cy="447040"/>
+          <a:off x="17975712" y="11501628"/>
+          <a:ext cx="288824" cy="862270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12689,9 +12962,15 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="37" idx="0"/>
@@ -12739,9 +13018,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="551" idx="0"/>
           <a:endCxn id="175" idx="2"/>
@@ -12790,9 +13075,15 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="310" idx="1"/>
           <a:endCxn id="405" idx="3"/>
@@ -12841,9 +13132,15 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="310" idx="0"/>
           <a:endCxn id="309" idx="1"/>
@@ -12892,9 +13189,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="309" idx="0"/>
           <a:endCxn id="34" idx="2"/>
@@ -12943,9 +13246,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="1"/>
           <a:endCxn id="84" idx="5"/>
@@ -12993,9 +13302,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="437" idx="2"/>
           <a:endCxn id="458" idx="0"/>
@@ -13043,9 +13358,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="2"/>
           <a:endCxn id="458" idx="1"/>
@@ -13093,9 +13414,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="1"/>
           <a:endCxn id="533" idx="3"/>
@@ -13143,9 +13470,15 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>10795</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="1"/>
           <a:endCxn id="522" idx="3"/>
@@ -13193,9 +13526,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="2"/>
           <a:endCxn id="458" idx="1"/>
@@ -13243,9 +13582,15 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="522" idx="1"/>
           <a:endCxn id="51" idx="3"/>
@@ -13294,9 +13639,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="1"/>
           <a:endCxn id="374" idx="3"/>
@@ -13344,9 +13695,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="0"/>
           <a:endCxn id="374" idx="2"/>
@@ -13394,9 +13751,15 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="374" idx="1"/>
           <a:endCxn id="38" idx="0"/>
@@ -13444,9 +13807,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="2"/>
           <a:endCxn id="636" idx="0"/>
@@ -13494,9 +13863,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="2"/>
           <a:endCxn id="639" idx="0"/>
@@ -13544,9 +13919,15 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>29845</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="1"/>
           <a:endCxn id="35" idx="3"/>
@@ -13562,6 +13943,226 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Preparation 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24B3328-1943-4EB5-A363-385E369F93B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15217587" y="10903321"/>
+          <a:ext cx="2218765" cy="728383"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPreparation">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Thm32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>拜尔分类定理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>非空完备度量空间不是第一类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500655</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>94753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F17FAC1-DF91-4D79-8577-A561AC0290DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15628596" y="10572253"/>
+          <a:ext cx="698374" cy="331068"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>94241</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>164766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4EEBDD-32A3-401B-BE8C-C57D88A760B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16326970" y="11631704"/>
+          <a:ext cx="105447" cy="344062"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -13592,7 +14193,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C0C0C0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -13856,31 +14457,31 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.8583333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.28333333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.2833333333333" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
+    <row r="1" spans="1:10" ht="17.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -13906,7 +14507,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="15" spans="1:10">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -13936,7 +14537,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="15" spans="1:10">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -13956,7 +14557,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="15" spans="1:10">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -13978,7 +14579,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="15" spans="1:10">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -13998,7 +14599,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="15" spans="1:10">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -14016,7 +14617,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="15" spans="1:10">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -14034,7 +14635,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="15" spans="1:10">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -14054,7 +14655,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15" spans="1:10">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -14074,7 +14675,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="15" spans="1:10">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -14094,7 +14695,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="1:10">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -14114,7 +14715,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="1:10">
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -14130,7 +14731,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" ht="15" spans="1:10">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -14150,7 +14751,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" ht="15" spans="1:10">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -14170,7 +14771,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" ht="15" spans="1:10">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -14202,7 +14803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:10">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -14224,7 +14825,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" ht="15" spans="1:10">
+    <row r="17" spans="1:10" ht="17.25">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -14244,7 +14845,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" ht="15" spans="1:10">
+    <row r="18" spans="1:10" ht="17.25">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -14264,7 +14865,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" ht="15" spans="1:10">
+    <row r="19" spans="1:10" ht="17.25">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -14282,7 +14883,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" ht="15" spans="1:10">
+    <row r="20" spans="1:10" ht="17.25">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -14302,7 +14903,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" ht="15" spans="1:10">
+    <row r="21" spans="1:10" ht="17.25">
       <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
@@ -14322,7 +14923,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" ht="15" spans="1:10">
+    <row r="22" spans="1:10" ht="17.25">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -14340,7 +14941,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15" spans="1:10">
+    <row r="23" spans="1:10" ht="17.25">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -14360,7 +14961,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" ht="15" spans="1:10">
+    <row r="24" spans="1:10" ht="17.25">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -14380,7 +14981,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" ht="15" spans="1:10">
+    <row r="25" spans="1:10" ht="17.25">
       <c r="A25" s="5" t="s">
         <v>102</v>
       </c>
@@ -14402,7 +15003,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" ht="15" spans="1:10">
+    <row r="26" spans="1:10" ht="17.25">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
@@ -14424,7 +15025,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" ht="15" spans="1:10">
+    <row r="27" spans="1:10" ht="17.25">
       <c r="A27" s="5" t="s">
         <v>112</v>
       </c>
@@ -14442,7 +15043,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" ht="15" spans="1:10">
+    <row r="28" spans="1:10" ht="17.25">
       <c r="A28" s="5" t="s">
         <v>115</v>
       </c>
@@ -14464,7 +15065,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" ht="15" spans="1:10">
+    <row r="29" spans="1:10" ht="17.25">
       <c r="A29" s="5" t="s">
         <v>119</v>
       </c>
@@ -14486,7 +15087,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" ht="15" spans="1:10">
+    <row r="30" spans="1:10" ht="17.25">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -14508,7 +15109,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" ht="15" spans="1:10">
+    <row r="31" spans="1:10" ht="17.25">
       <c r="A31" s="5" t="s">
         <v>129</v>
       </c>
@@ -14532,7 +15133,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" ht="15" spans="1:10">
+    <row r="32" spans="1:10" ht="17.25">
       <c r="A32" s="5" t="s">
         <v>135</v>
       </c>
@@ -14552,7 +15153,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" ht="15" spans="1:10">
+    <row r="33" spans="1:10" ht="17.25">
       <c r="A33" s="5" t="s">
         <v>139</v>
       </c>
@@ -14576,7 +15177,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" ht="15" spans="1:10">
+    <row r="34" spans="1:10" ht="17.25">
       <c r="A34" s="5" t="s">
         <v>144</v>
       </c>
@@ -14597,28 +15198,26 @@
       <c r="J34" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.236220472440945" right="0" top="0.551181102362205" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.23622047244094499" right="0" top="0.55118110236220497" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.425" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -14627,7 +15226,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:3">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -14636,7 +15235,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="18.75" spans="1:3">
+    <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
@@ -14645,7 +15244,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:3">
+    <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
@@ -14654,7 +15253,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:3">
+    <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>156</v>
       </c>
@@ -14663,7 +15262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:3">
+    <row r="6" spans="1:3" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
@@ -14672,7 +15271,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:3">
+    <row r="7" spans="1:3" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -14681,7 +15280,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:3">
+    <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -14692,7 +15291,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:3">
+    <row r="9" spans="1:3" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
@@ -14701,7 +15300,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:3">
+    <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -14710,7 +15309,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:3">
+    <row r="11" spans="1:3" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>169</v>
       </c>
@@ -14719,7 +15318,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:3">
+    <row r="12" spans="1:3" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>171</v>
       </c>
@@ -14728,7 +15327,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:3">
+    <row r="13" spans="1:3" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>173</v>
       </c>
@@ -14737,7 +15336,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:3">
+    <row r="14" spans="1:3" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
@@ -14746,7 +15345,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:3">
+    <row r="15" spans="1:3" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -14755,7 +15354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:3">
+    <row r="16" spans="1:3" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>179</v>
       </c>
@@ -14766,7 +15365,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:3">
+    <row r="17" spans="1:3" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>182</v>
       </c>
@@ -14775,7 +15374,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" ht="18.75" spans="1:3">
+    <row r="18" spans="1:3" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>184</v>
       </c>
@@ -14784,7 +15383,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" ht="18.75" spans="1:3">
+    <row r="19" spans="1:3" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>186</v>
       </c>
@@ -14795,7 +15394,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:3">
+    <row r="20" spans="1:3" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
@@ -14804,7 +15403,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" ht="18.75" spans="1:3">
+    <row r="21" spans="1:3" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>191</v>
       </c>
@@ -14813,7 +15412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="1:3">
+    <row r="22" spans="1:3" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>193</v>
       </c>
@@ -14822,7 +15421,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" ht="18.75" spans="1:3">
+    <row r="23" spans="1:3" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>195</v>
       </c>
@@ -14833,7 +15432,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" ht="18.75" spans="1:3">
+    <row r="24" spans="1:3" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>198</v>
       </c>
@@ -14844,7 +15443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" ht="18.75" spans="1:3">
+    <row r="25" spans="1:3" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>201</v>
       </c>
@@ -14855,7 +15454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" ht="18.75" spans="1:3">
+    <row r="26" spans="1:3" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
@@ -14866,7 +15465,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" ht="18.75" spans="1:3">
+    <row r="27" spans="1:3" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>207</v>
       </c>
@@ -14877,7 +15476,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" ht="18.75" spans="1:3">
+    <row r="28" spans="1:3" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>210</v>
       </c>
@@ -14885,7 +15484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" ht="18.75" spans="1:3">
+    <row r="29" spans="1:3" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
@@ -14896,7 +15495,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" ht="18.75" spans="1:3">
+    <row r="30" spans="1:3" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>215</v>
       </c>
@@ -14907,7 +15506,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" ht="18.75" spans="1:3">
+    <row r="31" spans="1:3" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>218</v>
       </c>
@@ -14916,28 +15515,32 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" ht="18.75" spans="1:3">
+    <row r="32" spans="1:3" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="33" ht="18.75" spans="1:3">
+    <row r="33" spans="1:3" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" ht="18.75" spans="1:3">
+    <row r="34" spans="1:3" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" ht="18.75" spans="1:3">
+    <row r="35" spans="1:3" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
@@ -14947,45 +15550,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="AA1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="R1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" topLeftCell="L45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="27:27">
       <c r="AA1" t="s">
         <v>224</v>
       </c>
     </row>
+    <row r="71" spans="18:18">
+      <c r="R71" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <picture r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -14994,7 +15598,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>